--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42977,6 +42977,41 @@
         <v>900000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1091900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43012,6 +43012,41 @@
         <v>1091900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>382000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43047,6 +43047,41 @@
         <v>382000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>680800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43082,6 +43082,41 @@
         <v>680800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43117,6 +43117,41 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1531600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43152,6 +43152,41 @@
         <v>1531600</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>6725600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43187,6 +43187,41 @@
         <v>6725600</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>769400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43222,6 +43222,41 @@
         <v>769400</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1309900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43257,6 +43257,41 @@
         <v>1309900</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1300400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43292,6 +43292,41 @@
         <v>1300400</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>750900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43327,6 +43327,41 @@
         <v>750900</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>230400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43362,6 +43362,41 @@
         <v>230400</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>458000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43397,6 +43397,76 @@
         <v>458000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>291500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>686400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43467,6 +43467,76 @@
         <v>686400</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>710400</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>701900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43537,6 +43537,41 @@
         <v>701900</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>195000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43572,6 +43572,41 @@
         <v>195000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>143000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43607,6 +43607,41 @@
         <v>143000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>297300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43642,6 +43642,41 @@
         <v>297300</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1352300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43677,6 +43677,76 @@
         <v>1352300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1182800</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1254600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43747,6 +43747,41 @@
         <v>1254600</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43782,6 +43782,41 @@
         <v>1100000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>2109400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2121"/>
+  <dimension ref="A1:I2122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74617,6 +74617,41 @@
         <v>2109400</v>
       </c>
     </row>
+    <row r="2122">
+      <c r="A2122" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2122" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2122" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2122" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2122" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2122" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2122" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2122" t="n">
+        <v>1656400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2122"/>
+  <dimension ref="A1:I2123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74652,6 +74652,41 @@
         <v>1656400</v>
       </c>
     </row>
+    <row r="2123">
+      <c r="A2123" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2123" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2123" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2123" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2123" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2123" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2123" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2123" t="n">
+        <v>1574100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2123"/>
+  <dimension ref="A1:I2124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74687,6 +74687,41 @@
         <v>1574100</v>
       </c>
     </row>
+    <row r="2124">
+      <c r="A2124" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2124" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2124" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2124" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2124" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2124" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2124" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2124" t="n">
+        <v>733000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2124"/>
+  <dimension ref="A1:I2125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74722,6 +74722,41 @@
         <v>733000</v>
       </c>
     </row>
+    <row r="2125">
+      <c r="A2125" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2125" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2125" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2125" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2125" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2125" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2125" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2125" t="n">
+        <v>630300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2125"/>
+  <dimension ref="A1:I2126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74757,6 +74757,41 @@
         <v>630300</v>
       </c>
     </row>
+    <row r="2126">
+      <c r="A2126" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2126" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2126" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2126" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2126" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2126" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2126" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2126" t="n">
+        <v>1854400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2126"/>
+  <dimension ref="A1:I2127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74792,6 +74792,41 @@
         <v>1854400</v>
       </c>
     </row>
+    <row r="2127">
+      <c r="A2127" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2127" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2127" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2127" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F2127" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2127" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2127" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I2127" t="n">
+        <v>544200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2127"/>
+  <dimension ref="A1:I2128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74827,6 +74827,41 @@
         <v>544200</v>
       </c>
     </row>
+    <row r="2128">
+      <c r="A2128" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2128" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2128" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2128" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2128" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2128" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2128" t="n">
+        <v>667700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2128"/>
+  <dimension ref="A1:I2129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74862,6 +74862,41 @@
         <v>667700</v>
       </c>
     </row>
+    <row r="2129">
+      <c r="A2129" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2129" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2129" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2129" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2129" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2129" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2129" t="n">
+        <v>1496900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2129"/>
+  <dimension ref="A1:I2130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74897,6 +74897,41 @@
         <v>1496900</v>
       </c>
     </row>
+    <row r="2130">
+      <c r="A2130" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2130" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2130" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2130" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2130" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2130" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2130" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2130" t="n">
+        <v>2475800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2130"/>
+  <dimension ref="A1:I2131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74932,6 +74932,41 @@
         <v>2475800</v>
       </c>
     </row>
+    <row r="2131">
+      <c r="A2131" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2131" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2131" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2131" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2131" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2131" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2131" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2131" t="n">
+        <v>3085700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2131"/>
+  <dimension ref="A1:I2132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74967,6 +74967,41 @@
         <v>3085700</v>
       </c>
     </row>
+    <row r="2132">
+      <c r="A2132" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2132" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2132" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2132" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2132" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2132" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2132" t="n">
+        <v>239300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2132"/>
+  <dimension ref="A1:I2133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75002,6 +75002,41 @@
         <v>239300</v>
       </c>
     </row>
+    <row r="2133">
+      <c r="A2133" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2133" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2133" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2133" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2133" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2133" t="n">
+        <v>867400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2133"/>
+  <dimension ref="A1:I2134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75037,6 +75037,41 @@
         <v>867400</v>
       </c>
     </row>
+    <row r="2134">
+      <c r="A2134" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2134" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2134" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2134" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2134" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2134" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2134" t="n">
+        <v>3370600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2134"/>
+  <dimension ref="A1:I2135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75072,6 +75072,41 @@
         <v>3370600</v>
       </c>
     </row>
+    <row r="2135">
+      <c r="A2135" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2135" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2135" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2135" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F2135" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2135" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2135" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2135" t="n">
+        <v>3365300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2135"/>
+  <dimension ref="A1:I2136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75107,6 +75107,41 @@
         <v>3365300</v>
       </c>
     </row>
+    <row r="2136">
+      <c r="A2136" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2136" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2136" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2136" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2136" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2136" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2136" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2136" t="n">
+        <v>1174100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2136"/>
+  <dimension ref="A1:I2137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75142,6 +75142,41 @@
         <v>1174100</v>
       </c>
     </row>
+    <row r="2137">
+      <c r="A2137" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2137" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2137" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2137" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2137" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2137" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2137" t="n">
+        <v>2125600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2137"/>
+  <dimension ref="A1:I2138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75177,6 +75177,41 @@
         <v>2125600</v>
       </c>
     </row>
+    <row r="2138">
+      <c r="A2138" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2138" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2138" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2138" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2138" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2138" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2138" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2138" t="n">
+        <v>2668500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2138"/>
+  <dimension ref="A1:I2139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75212,6 +75212,41 @@
         <v>2668500</v>
       </c>
     </row>
+    <row r="2139">
+      <c r="A2139" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2139" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2139" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2139" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2139" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2139" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2139" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I2139" t="n">
+        <v>2641900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2139"/>
+  <dimension ref="A1:I2140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75247,6 +75247,41 @@
         <v>2641900</v>
       </c>
     </row>
+    <row r="2140">
+      <c r="A2140" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2140" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2140" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2140" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2140" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2140" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2140" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2140" t="n">
+        <v>1324200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2140"/>
+  <dimension ref="A1:I2141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75282,6 +75282,41 @@
         <v>1324200</v>
       </c>
     </row>
+    <row r="2141">
+      <c r="A2141" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2141" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2141" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2141" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2141" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2141" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2141" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2141" t="n">
+        <v>1534400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2141"/>
+  <dimension ref="A1:I2142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75317,6 +75317,41 @@
         <v>1534400</v>
       </c>
     </row>
+    <row r="2142">
+      <c r="A2142" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2142" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2142" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2142" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2142" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2142" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2142" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I2142" t="n">
+        <v>477200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2142"/>
+  <dimension ref="A1:I2143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75352,6 +75352,41 @@
         <v>477200</v>
       </c>
     </row>
+    <row r="2143">
+      <c r="A2143" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2143" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2143" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2143" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2143" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2143" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2143" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2143" t="n">
+        <v>704300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2143"/>
+  <dimension ref="A1:I2144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75387,6 +75387,41 @@
         <v>704300</v>
       </c>
     </row>
+    <row r="2144">
+      <c r="A2144" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2144" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2144" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2144" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2144" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2144" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2144" t="n">
+        <v>1095400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2144"/>
+  <dimension ref="A1:I2145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75422,6 +75422,41 @@
         <v>1095400</v>
       </c>
     </row>
+    <row r="2145">
+      <c r="A2145" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2145" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2145" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2145" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2145" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2145" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2145" t="n">
+        <v>487100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2145"/>
+  <dimension ref="A1:I2146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75457,6 +75457,41 @@
         <v>487100</v>
       </c>
     </row>
+    <row r="2146">
+      <c r="A2146" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2146" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2146" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2146" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2146" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2146" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2146" t="n">
+        <v>670900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2146"/>
+  <dimension ref="A1:I2148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75492,6 +75492,76 @@
         <v>670900</v>
       </c>
     </row>
+    <row r="2147">
+      <c r="A2147" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2147" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2147" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2147" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G2147" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H2147" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I2147" t="n">
+        <v>945300</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2148" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2148" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2148" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2148" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2148" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2148" t="n">
+        <v>847900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2148"/>
+  <dimension ref="A1:I2149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75562,6 +75562,41 @@
         <v>847900</v>
       </c>
     </row>
+    <row r="2149">
+      <c r="A2149" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2149" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2149" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2149" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2149" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2149" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2149" t="n">
+        <v>794300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2149"/>
+  <dimension ref="A1:I2152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75597,6 +75597,111 @@
         <v>794300</v>
       </c>
     </row>
+    <row r="2150">
+      <c r="A2150" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2150" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2150" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2150" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2150" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2150" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2150" t="n">
+        <v>695600</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2151" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2151" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2151" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2151" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2151" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2151" t="n">
+        <v>134300</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2152" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2152" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2152" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2152" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2152" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2152" t="n">
+        <v>778000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2152"/>
+  <dimension ref="A1:I2153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75702,6 +75702,41 @@
         <v>778000</v>
       </c>
     </row>
+    <row r="2153">
+      <c r="A2153" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2153" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2153" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2153" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2153" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2153" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2153" t="n">
+        <v>486000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2153"/>
+  <dimension ref="A1:I2154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75737,6 +75737,41 @@
         <v>486000</v>
       </c>
     </row>
+    <row r="2154">
+      <c r="A2154" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2154" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2154" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2154" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2154" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2154" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I2154" t="n">
+        <v>6370600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5205.xlsx
+++ b/data/5205.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2154"/>
+  <dimension ref="A1:I2157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75772,6 +75772,111 @@
         <v>6370600</v>
       </c>
     </row>
+    <row r="2155">
+      <c r="A2155" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2155" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2155" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2155" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G2155" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H2155" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2155" t="n">
+        <v>6022000</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2156" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2156" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2156" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G2156" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H2156" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2156" t="n">
+        <v>600800</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2157" t="inlineStr">
+        <is>
+          <t>5205</t>
+        </is>
+      </c>
+      <c r="D2157" t="inlineStr">
+        <is>
+          <t>SENDAI</t>
+        </is>
+      </c>
+      <c r="E2157" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G2157" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2157" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I2157" t="n">
+        <v>1409500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
